--- a/fm.xlsx
+++ b/fm.xlsx
@@ -31,6 +31,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">﻿</t>
     </r>
@@ -156,6 +157,7 @@
       <color rgb="FF000000"/>
       <name val="Lohit Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,8 +238,8 @@
   </sheetPr>
   <dimension ref="A1:J278"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A247" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S270" activeCellId="0" sqref="S270"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F244" activeCellId="0" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8000,10 +8002,10 @@
         <v>128</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F243" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G243" s="1" t="n">
         <v>2</v>
@@ -8032,10 +8034,10 @@
         <v>128</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F244" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G244" s="1" t="n">
         <v>4</v>
